--- a/KetQuaTest_ProductDetailServlet.xlsx
+++ b/KetQuaTest_ProductDetailServlet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -35,64 +35,103 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>DETAIL_07</t>
+  </si>
+  <si>
+    <t>Lỗi hệ thống bất ngờ</t>
+  </si>
+  <si>
+    <t>Crash</t>
+  </si>
+  <si>
+    <t>Service ném RuntimeException</t>
+  </si>
+  <si>
+    <t>Catch &amp; Redirect an toàn</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>DETAIL_06</t>
+  </si>
+  <si>
+    <t>ID toàn khoảng trắng</t>
+  </si>
+  <si>
+    <t>ID='   '</t>
+  </si>
+  <si>
+    <t>Param id = '   '</t>
+  </si>
+  <si>
+    <t>Redirect searchResult.jsp</t>
+  </si>
+  <si>
+    <t>DETAIL_05</t>
+  </si>
+  <si>
+    <t>ID là Null</t>
+  </si>
+  <si>
+    <t>ID=null</t>
+  </si>
+  <si>
+    <t>Param id = null</t>
+  </si>
+  <si>
     <t>DETAIL_01</t>
   </si>
   <si>
     <t>Xem SP thành công</t>
   </si>
   <si>
+    <t>ID=1</t>
+  </si>
+  <si>
     <t>ID=1 tồn tại -&gt; Forward JSP</t>
   </si>
   <si>
-    <t>ID=1</t>
-  </si>
-  <si>
     <t>Forward info-products.jsp</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>DETAIL_04</t>
   </si>
   <si>
-    <t>ID rỗng/Null</t>
+    <t>ID rỗng</t>
+  </si>
+  <si>
+    <t>ID=''</t>
   </si>
   <si>
     <t>ID='' -&gt; Validate fail</t>
   </si>
   <si>
-    <t>ID=''</t>
-  </si>
-  <si>
-    <t>Redirect searchResult.jsp</t>
-  </si>
-  <si>
     <t>DETAIL_02</t>
   </si>
   <si>
     <t>SP không tồn tại</t>
   </si>
   <si>
+    <t>ID=999</t>
+  </si>
+  <si>
     <t>ID=999 -&gt; Service trả về null</t>
   </si>
   <si>
-    <t>ID=999</t>
-  </si>
-  <si>
     <t>DETAIL_03</t>
   </si>
   <si>
     <t>ID lỗi format (chữ)</t>
   </si>
   <si>
+    <t>ID='abc'</t>
+  </si>
+  <si>
     <t>ID='abc' -&gt; ParseInt lỗi</t>
-  </si>
-  <si>
-    <t>ID='abc'</t>
   </si>
 </sst>
 </file>
@@ -170,16 +209,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="10.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.00390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.6953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.85546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.80859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="28.80078125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.20703125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
@@ -291,12 +330,81 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s" s="2">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>13</v>
       </c>
     </row>
